--- a/datas/日九系列/日九拍立得/日九拍立得排表.xlsx
+++ b/datas/日九系列/日九拍立得/日九拍立得排表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="101">
   <si>
     <t>character</t>
   </si>
@@ -104,7 +104,10 @@
     <t>canvas</t>
   </si>
   <si>
-    <t>团长_</t>
+    <t>yesay</t>
+  </si>
+  <si>
+    <t>团长（包尾）</t>
   </si>
   <si>
     <t>姬宫桃李</t>
@@ -113,7 +116,7 @@
     <t>伏见弓弦</t>
   </si>
   <si>
-    <t>xy_叶守</t>
+    <t>叶守（闲鱼）</t>
   </si>
   <si>
     <t>冰鹰北斗</t>
@@ -170,13 +173,13 @@
     <t>天城一彩</t>
   </si>
   <si>
-    <t>xy_茶叶蛋</t>
+    <t>茶叶蛋（闲鱼）</t>
   </si>
   <si>
     <t>白鸟蓝良</t>
   </si>
   <si>
-    <t>管理_</t>
+    <t>管理（包尾）</t>
   </si>
   <si>
     <t>礼濑真宵</t>
@@ -209,6 +212,9 @@
     <t>涟纯</t>
   </si>
   <si>
+    <t>涂安（闲鱼）</t>
+  </si>
+  <si>
     <t>斋宫宗</t>
   </si>
   <si>
@@ -233,7 +239,7 @@
     <t>椎名丹希</t>
   </si>
   <si>
-    <t>xy_洵乘二</t>
+    <t>洵乘二（闲鱼）</t>
   </si>
   <si>
     <t>朔间零</t>
@@ -305,7 +311,7 @@
     <t>三毛缟斑</t>
   </si>
   <si>
-    <t>xy_青森果茶</t>
+    <t>青森果茶（闲鱼）</t>
   </si>
   <si>
     <t>泷维吹</t>
@@ -1322,19 +1328,16 @@
   <sheetPr/>
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.875" style="1" customWidth="1"/>
-    <col min="15" max="21" width="10" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="21" width="15" style="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1491,51 +1494,51 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1600,84 +1603,84 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -1730,19 +1733,19 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1795,34 +1798,34 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
@@ -1860,10 +1863,10 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1925,7 +1928,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -1990,43 +1993,43 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
@@ -2055,7 +2058,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -2120,13 +2123,13 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -2185,37 +2188,37 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>22</v>
@@ -2250,28 +2253,28 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
@@ -2315,465 +2318,465 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>24</v>
@@ -2835,72 +2838,72 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -2965,37 +2968,37 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>22</v>
@@ -3030,140 +3033,140 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
@@ -3225,202 +3228,202 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
@@ -3485,37 +3488,37 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>22</v>
@@ -3550,75 +3553,75 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>22</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>22</v>
@@ -3745,75 +3748,75 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>22</v>
@@ -3875,13 +3878,13 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>22</v>
@@ -3940,81 +3943,81 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>22</v>
@@ -4070,19 +4073,19 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>22</v>
@@ -4135,140 +4138,140 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -4330,140 +4333,140 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>22</v>
@@ -4525,19 +4528,19 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>22</v>
@@ -4590,327 +4593,327 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
